--- a/2020项目对接/01-01珊瑚配置产品/第二批-珊瑚测试卡(3天).xlsx
+++ b/2020项目对接/01-01珊瑚配置产品/第二批-珊瑚测试卡(3天).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work_project\01-01珊瑚配置产品\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work_project\2020项目对接\01-01珊瑚配置产品\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,9 +36,6 @@
     <t>校验码</t>
   </si>
   <si>
-    <t>202081010010</t>
-  </si>
-  <si>
     <t>3277</t>
   </si>
   <si>
@@ -88,9 +85,6 @@
   </si>
   <si>
     <t>0999</t>
-  </si>
-  <si>
-    <t>202081010020</t>
   </si>
   <si>
     <t>8415</t>
@@ -335,6 +329,14 @@
   </si>
   <si>
     <t>0398</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>202081010010</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>202081010020</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -370,7 +372,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,6 +382,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -412,7 +426,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -425,8 +439,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -711,7 +731,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -722,13 +742,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -747,220 +767,220 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>104</v>
+      <c r="B4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>24</v>
+      <c r="B13" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>26</v>
+      <c r="B14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>28</v>
+      <c r="B15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>30</v>
+      <c r="B16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>32</v>
+      <c r="B17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>34</v>
+      <c r="B18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>36</v>
+      <c r="B19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>38</v>
+      <c r="B20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>40</v>
+      <c r="B21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>42</v>
+      <c r="B22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -968,10 +988,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -979,10 +999,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -990,10 +1010,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -1001,10 +1021,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -1012,10 +1032,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -1023,10 +1043,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -1034,10 +1054,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -1045,10 +1065,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -1056,10 +1076,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -1067,10 +1087,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -1078,10 +1098,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -1089,10 +1109,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -1100,10 +1120,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -1111,10 +1131,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -1122,10 +1142,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -1133,10 +1153,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -1144,10 +1164,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -1155,10 +1175,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -1166,10 +1186,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -1177,10 +1197,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
@@ -1188,10 +1208,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
@@ -1199,10 +1219,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
@@ -1210,10 +1230,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
@@ -1221,10 +1241,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -1232,10 +1252,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -1243,10 +1263,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
@@ -1254,10 +1274,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
@@ -1265,10 +1285,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
@@ -1276,10 +1296,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -1287,10 +1307,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/2020项目对接/01-01珊瑚配置产品/第二批-珊瑚测试卡(3天).xlsx
+++ b/2020项目对接/01-01珊瑚配置产品/第二批-珊瑚测试卡(3天).xlsx
@@ -108,18 +108,6 @@
     <t>8826</t>
   </si>
   <si>
-    <t>202081010024</t>
-  </si>
-  <si>
-    <t>8044</t>
-  </si>
-  <si>
-    <t>202081010025</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
     <t>202081010026</t>
   </si>
   <si>
@@ -337,6 +325,22 @@
   </si>
   <si>
     <t>202081010020</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>202081010024</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8044</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>202081010025</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1902</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -442,11 +446,11 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -731,7 +735,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -742,13 +746,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -768,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
@@ -779,10 +783,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -878,7 +882,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>22</v>
@@ -888,10 +892,10 @@
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -899,10 +903,10 @@
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -910,10 +914,10 @@
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -921,66 +925,66 @@
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>30</v>
+      <c r="B17" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>32</v>
+      <c r="B18" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>34</v>
+      <c r="B19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>36</v>
+      <c r="B20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>38</v>
+      <c r="B21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>40</v>
+      <c r="B22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -988,10 +992,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -999,10 +1003,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -1010,10 +1014,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -1021,10 +1025,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -1032,10 +1036,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -1043,10 +1047,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -1054,10 +1058,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -1065,10 +1069,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -1076,10 +1080,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -1087,10 +1091,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -1098,10 +1102,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -1109,10 +1113,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -1120,10 +1124,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -1131,10 +1135,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -1142,10 +1146,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -1153,10 +1157,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -1164,10 +1168,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -1175,10 +1179,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -1186,10 +1190,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -1197,10 +1201,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
@@ -1208,10 +1212,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
@@ -1219,10 +1223,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
@@ -1230,10 +1234,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
@@ -1241,10 +1245,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -1252,10 +1256,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -1263,10 +1267,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
@@ -1274,10 +1278,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
@@ -1285,10 +1289,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
@@ -1296,10 +1300,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -1307,10 +1311,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/2020项目对接/01-01珊瑚配置产品/第二批-珊瑚测试卡(3天).xlsx
+++ b/2020项目对接/01-01珊瑚配置产品/第二批-珊瑚测试卡(3天).xlsx
@@ -735,7 +735,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -947,10 +947,10 @@
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -958,10 +958,10 @@
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -969,10 +969,10 @@
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -980,10 +980,10 @@
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -991,10 +991,10 @@
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1002,10 +1002,10 @@
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1013,10 +1013,10 @@
       <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1024,10 +1024,10 @@
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="4" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1035,10 +1035,10 @@
       <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1046,10 +1046,10 @@
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1057,10 +1057,10 @@
       <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1068,10 +1068,10 @@
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1079,10 +1079,10 @@
       <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1090,10 +1090,10 @@
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="5" t="s">
         <v>56</v>
       </c>
     </row>
